--- a/biology/Zoologie/Épeire_à_bosses/Épeire_à_bosses.xlsx
+++ b/biology/Zoologie/Épeire_à_bosses/Épeire_à_bosses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89peire_%C3%A0_bosses</t>
+          <t>Épeire_à_bosses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gibbaranea gibbosa
-Gibbaranea gibbosa, l'Épeire à bosses, est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+Gibbaranea gibbosa, l'Épeire à bosses, est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89peire_%C3%A0_bosses</t>
+          <t>Épeire_à_bosses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Turquie et en Iran[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Turquie et en Iran.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89peire_%C3%A0_bosses</t>
+          <t>Épeire_à_bosses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 5,5 à 6 mm et les femelles de 7 à 8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 5,5 à 6 mm et les femelles de 7 à 8 mm.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89peire_%C3%A0_bosses</t>
+          <t>Épeire_à_bosses</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 31/07/2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 31/07/2022) :
 Gibbaranea gibbosa gibbosa (Walckenaer, 1802)
 Gibbaranea gibbosa confinis (Simon, 1870) d'Espagne et de Corse</t>
         </is>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89peire_%C3%A0_bosses</t>
+          <t>Épeire_à_bosses</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea gibbosa par Walckenaer en 1802. Elle est placée dans le genre Epeira par Walckenaer en 1805[4], dans le genre Araneus par Lessert en 1910[5] puis dans le genre Gibbaranea par Archer en 1951[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea gibbosa par Walckenaer en 1802. Elle est placée dans le genre Epeira par Walckenaer en 1805, dans le genre Araneus par Lessert en 1910 puis dans le genre Gibbaranea par Archer en 1951.
 </t>
         </is>
       </c>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89peire_%C3%A0_bosses</t>
+          <t>Épeire_à_bosses</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Walckenaer, 1802 : Faune parisienne. Insectes. ou Histoire abrégée des insectes des environs de Paris. Paris, vol. 2, p. 187-250.
 Simon, 1870 : « Aranéides nouveaux ou peu connus du midi de l'Europe. » Mémoires de la Société Royale des sciences de Liège, sér. 2, vol. 3, p. 271-358 (texte intégral).</t>
